--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11877,4 +11878,5646 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8609</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3570</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6512</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3517</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0917</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0313</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9346</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5648</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17520,4 +17521,4012 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2269</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21529,4 +21530,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>138</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21538,7 +21539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21549,17 +21550,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21569,14 +21590,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.34</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -21585,14 +21628,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.45</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -21601,14 +21666,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>160</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.09</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -21617,13 +21704,4293 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1841</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9464</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0267</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7911</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5444</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>53.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9751</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9155</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7691</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7520</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7455</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>160</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>138</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25889,7 +25890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25900,17 +25901,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25920,14 +25941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>113</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.25</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -25936,14 +25979,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.34</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -25952,14 +26017,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.45</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -25968,14 +26055,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>160</v>
-      </c>
-      <c r="D5" t="n">
-        <v>57.09</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -25984,13 +26093,4613 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6736</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3941</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6645</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6050</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5521</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5328</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4858</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3957</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>147</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>160</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>138</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>54.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30582,7 +30583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30593,17 +30594,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30613,14 +30634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.27</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -30629,14 +30672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>113</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.25</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -30645,14 +30710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>104</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.34</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -30661,14 +30748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>147</v>
-      </c>
-      <c r="D5" t="n">
-        <v>70.45</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -30677,14 +30786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>160</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57.09</v>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -30693,13 +30824,7135 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0033</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8908</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8606</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7911</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3441</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0438</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9411</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8440</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6740</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6421</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6403</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6326</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5395</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98.65000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>147</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>160</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>138</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
+++ b/数据整理/stocks/A股/创业板/300496-中科创达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D2" t="n">
-        <v>98.65000000000001</v>
+        <v>71.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27</v>
+        <v>98.65000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D4" t="n">
-        <v>74.25</v>
+        <v>64.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D5" t="n">
-        <v>56.34</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>70.45</v>
+        <v>56.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D7" t="n">
-        <v>57.09</v>
+        <v>70.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>160</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>138</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>54.67</v>
       </c>
     </row>
@@ -600,6 +617,6744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H177"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4994</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7840</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0348</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4973</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4704</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1209</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0896</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9781</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7543</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7308</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6306</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5912</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5123</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7835,7 +14590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12527,7 +19282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16877,7 +23632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20885,7 +27640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26527,7 +33282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32663,7 +39418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
